--- a/application/assets/other/staffsample.xlsx
+++ b/application/assets/other/staffsample.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8C52EF-8EFC-4600-8A6E-1722055966D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E82E2-66B6-4024-9F89-A2DDE2E1F944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="4830" windowWidth="27930" windowHeight="13950" xr2:uid="{9A84109D-DAB1-49D9-99F2-C799394ED04A}"/>
+    <workbookView xWindow="4980" yWindow="4980" windowWidth="38700" windowHeight="15345" xr2:uid="{9A84109D-DAB1-49D9-99F2-C799394ED04A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -44,20 +47,32 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>PositionCode</t>
+    <t>Department Code</t>
   </si>
   <si>
-    <t>DepartmentCode</t>
+    <t>Position Code</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,9 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -261,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C232E3BA-1715-4724-9C81-339106948324}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -419,10 +432,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="62" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,15 +446,4003 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D302" s="1"/>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D304" s="1"/>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D305" s="1"/>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D306" s="1"/>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D307" s="1"/>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D308" s="1"/>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D309" s="1"/>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D310" s="1"/>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D311" s="1"/>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D312" s="1"/>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D313" s="1"/>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D314" s="1"/>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D315" s="1"/>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D316" s="1"/>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D317" s="1"/>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D318" s="1"/>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D319" s="1"/>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D320" s="1"/>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D321" s="1"/>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D322" s="1"/>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D323" s="1"/>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D325" s="1"/>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D327" s="1"/>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D328" s="1"/>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D329" s="1"/>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D330" s="1"/>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D331" s="1"/>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D332" s="1"/>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D333" s="1"/>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D334" s="1"/>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D335" s="1"/>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D336" s="1"/>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D337" s="1"/>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D338" s="1"/>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D339" s="1"/>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D340" s="1"/>
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D341" s="1"/>
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D342" s="1"/>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D343" s="1"/>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D344" s="1"/>
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D345" s="1"/>
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D346" s="1"/>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D347" s="1"/>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D348" s="1"/>
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D349" s="1"/>
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D353" s="1"/>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D355" s="1"/>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D356" s="1"/>
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D357" s="1"/>
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D358" s="1"/>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D360" s="1"/>
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D361" s="1"/>
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D365" s="1"/>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D366" s="1"/>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D367" s="1"/>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D368" s="1"/>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D369" s="1"/>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D370" s="1"/>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D371" s="1"/>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D372" s="1"/>
+    </row>
+    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D373" s="1"/>
+    </row>
+    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D374" s="1"/>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D375" s="1"/>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D376" s="1"/>
+    </row>
+    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D377" s="1"/>
+    </row>
+    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D378" s="1"/>
+    </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D379" s="1"/>
+    </row>
+    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D380" s="1"/>
+    </row>
+    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D381" s="1"/>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D382" s="1"/>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D383" s="1"/>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D384" s="1"/>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D385" s="1"/>
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D386" s="1"/>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D388" s="1"/>
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D389" s="1"/>
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D390" s="1"/>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D391" s="1"/>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D392" s="1"/>
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D393" s="1"/>
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D394" s="1"/>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D395" s="1"/>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D396" s="1"/>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D397" s="1"/>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D398" s="1"/>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D399" s="1"/>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D400" s="1"/>
+    </row>
+    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D401" s="1"/>
+    </row>
+    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D402" s="1"/>
+    </row>
+    <row r="403" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D403" s="1"/>
+    </row>
+    <row r="404" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D404" s="1"/>
+    </row>
+    <row r="405" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D405" s="1"/>
+    </row>
+    <row r="406" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D406" s="1"/>
+    </row>
+    <row r="407" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D407" s="1"/>
+    </row>
+    <row r="408" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D408" s="1"/>
+    </row>
+    <row r="409" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D409" s="1"/>
+    </row>
+    <row r="410" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D410" s="1"/>
+    </row>
+    <row r="411" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D411" s="1"/>
+    </row>
+    <row r="412" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D412" s="1"/>
+    </row>
+    <row r="413" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D413" s="1"/>
+    </row>
+    <row r="414" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D414" s="1"/>
+    </row>
+    <row r="415" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D415" s="1"/>
+    </row>
+    <row r="416" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D416" s="1"/>
+    </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D417" s="1"/>
+    </row>
+    <row r="418" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D418" s="1"/>
+    </row>
+    <row r="419" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D419" s="1"/>
+    </row>
+    <row r="420" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D420" s="1"/>
+    </row>
+    <row r="421" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D421" s="1"/>
+    </row>
+    <row r="422" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D422" s="1"/>
+    </row>
+    <row r="423" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D423" s="1"/>
+    </row>
+    <row r="424" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D424" s="1"/>
+    </row>
+    <row r="425" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D425" s="1"/>
+    </row>
+    <row r="426" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D426" s="1"/>
+    </row>
+    <row r="427" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D427" s="1"/>
+    </row>
+    <row r="428" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D428" s="1"/>
+    </row>
+    <row r="429" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D429" s="1"/>
+    </row>
+    <row r="430" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D430" s="1"/>
+    </row>
+    <row r="431" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D431" s="1"/>
+    </row>
+    <row r="432" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D432" s="1"/>
+    </row>
+    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D433" s="1"/>
+    </row>
+    <row r="434" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D434" s="1"/>
+    </row>
+    <row r="435" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D435" s="1"/>
+    </row>
+    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D436" s="1"/>
+    </row>
+    <row r="437" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D437" s="1"/>
+    </row>
+    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D438" s="1"/>
+    </row>
+    <row r="439" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D439" s="1"/>
+    </row>
+    <row r="440" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D440" s="1"/>
+    </row>
+    <row r="441" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D441" s="1"/>
+    </row>
+    <row r="442" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D442" s="1"/>
+    </row>
+    <row r="443" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D443" s="1"/>
+    </row>
+    <row r="444" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D444" s="1"/>
+    </row>
+    <row r="445" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D445" s="1"/>
+    </row>
+    <row r="446" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D446" s="1"/>
+    </row>
+    <row r="447" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D447" s="1"/>
+    </row>
+    <row r="448" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D448" s="1"/>
+    </row>
+    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D449" s="1"/>
+    </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D450" s="1"/>
+    </row>
+    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D451" s="1"/>
+    </row>
+    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D452" s="1"/>
+    </row>
+    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D453" s="1"/>
+    </row>
+    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D454" s="1"/>
+    </row>
+    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D455" s="1"/>
+    </row>
+    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D456" s="1"/>
+    </row>
+    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D457" s="1"/>
+    </row>
+    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D458" s="1"/>
+    </row>
+    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D459" s="1"/>
+    </row>
+    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D460" s="1"/>
+    </row>
+    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D461" s="1"/>
+    </row>
+    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D462" s="1"/>
+    </row>
+    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D463" s="1"/>
+    </row>
+    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D464" s="1"/>
+    </row>
+    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D465" s="1"/>
+    </row>
+    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D466" s="1"/>
+    </row>
+    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D467" s="1"/>
+    </row>
+    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D468" s="1"/>
+    </row>
+    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D469" s="1"/>
+    </row>
+    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D470" s="1"/>
+    </row>
+    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D471" s="1"/>
+    </row>
+    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D472" s="1"/>
+    </row>
+    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D473" s="1"/>
+    </row>
+    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D474" s="1"/>
+    </row>
+    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D475" s="1"/>
+    </row>
+    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D476" s="1"/>
+    </row>
+    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D477" s="1"/>
+    </row>
+    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D478" s="1"/>
+    </row>
+    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D479" s="1"/>
+    </row>
+    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D480" s="1"/>
+    </row>
+    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D481" s="1"/>
+    </row>
+    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D482" s="1"/>
+    </row>
+    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D483" s="1"/>
+    </row>
+    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D484" s="1"/>
+    </row>
+    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D485" s="1"/>
+    </row>
+    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D486" s="1"/>
+    </row>
+    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D487" s="1"/>
+    </row>
+    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D488" s="1"/>
+    </row>
+    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D489" s="1"/>
+    </row>
+    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D490" s="1"/>
+    </row>
+    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D491" s="1"/>
+    </row>
+    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D492" s="1"/>
+    </row>
+    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D493" s="1"/>
+    </row>
+    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D494" s="1"/>
+    </row>
+    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D495" s="1"/>
+    </row>
+    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D496" s="1"/>
+    </row>
+    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D497" s="1"/>
+    </row>
+    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D498" s="1"/>
+    </row>
+    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D499" s="1"/>
+    </row>
+    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D500" s="1"/>
+    </row>
+    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D501" s="1"/>
+    </row>
+    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D502" s="1"/>
+    </row>
+    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D503" s="1"/>
+    </row>
+    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D504" s="1"/>
+    </row>
+    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D505" s="1"/>
+    </row>
+    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D506" s="1"/>
+    </row>
+    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D507" s="1"/>
+    </row>
+    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D508" s="1"/>
+    </row>
+    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D509" s="1"/>
+    </row>
+    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D510" s="1"/>
+    </row>
+    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D511" s="1"/>
+    </row>
+    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D512" s="1"/>
+    </row>
+    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D513" s="1"/>
+    </row>
+    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D514" s="1"/>
+    </row>
+    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D515" s="1"/>
+    </row>
+    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D516" s="1"/>
+    </row>
+    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D517" s="1"/>
+    </row>
+    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D518" s="1"/>
+    </row>
+    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D519" s="1"/>
+    </row>
+    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D520" s="1"/>
+    </row>
+    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D521" s="1"/>
+    </row>
+    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D522" s="1"/>
+    </row>
+    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D523" s="1"/>
+    </row>
+    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D524" s="1"/>
+    </row>
+    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D525" s="1"/>
+    </row>
+    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D526" s="1"/>
+    </row>
+    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D527" s="1"/>
+    </row>
+    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D528" s="1"/>
+    </row>
+    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D529" s="1"/>
+    </row>
+    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D530" s="1"/>
+    </row>
+    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D531" s="1"/>
+    </row>
+    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D532" s="1"/>
+    </row>
+    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D533" s="1"/>
+    </row>
+    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D534" s="1"/>
+    </row>
+    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D535" s="1"/>
+    </row>
+    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D536" s="1"/>
+    </row>
+    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D537" s="1"/>
+    </row>
+    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D538" s="1"/>
+    </row>
+    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D539" s="1"/>
+    </row>
+    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D540" s="1"/>
+    </row>
+    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D541" s="1"/>
+    </row>
+    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D542" s="1"/>
+    </row>
+    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D543" s="1"/>
+    </row>
+    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D544" s="1"/>
+    </row>
+    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D545" s="1"/>
+    </row>
+    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D546" s="1"/>
+    </row>
+    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D547" s="1"/>
+    </row>
+    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D548" s="1"/>
+    </row>
+    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D549" s="1"/>
+    </row>
+    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D550" s="1"/>
+    </row>
+    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D551" s="1"/>
+    </row>
+    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D552" s="1"/>
+    </row>
+    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D553" s="1"/>
+    </row>
+    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D554" s="1"/>
+    </row>
+    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D555" s="1"/>
+    </row>
+    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D556" s="1"/>
+    </row>
+    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D557" s="1"/>
+    </row>
+    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D558" s="1"/>
+    </row>
+    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D559" s="1"/>
+    </row>
+    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D560" s="1"/>
+    </row>
+    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D561" s="1"/>
+    </row>
+    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D562" s="1"/>
+    </row>
+    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D563" s="1"/>
+    </row>
+    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D564" s="1"/>
+    </row>
+    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D565" s="1"/>
+    </row>
+    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D566" s="1"/>
+    </row>
+    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D567" s="1"/>
+    </row>
+    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D568" s="1"/>
+    </row>
+    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D569" s="1"/>
+    </row>
+    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D570" s="1"/>
+    </row>
+    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D571" s="1"/>
+    </row>
+    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D572" s="1"/>
+    </row>
+    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D573" s="1"/>
+    </row>
+    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D574" s="1"/>
+    </row>
+    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D575" s="1"/>
+    </row>
+    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D576" s="1"/>
+    </row>
+    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D577" s="1"/>
+    </row>
+    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D578" s="1"/>
+    </row>
+    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D579" s="1"/>
+    </row>
+    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D580" s="1"/>
+    </row>
+    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D581" s="1"/>
+    </row>
+    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D582" s="1"/>
+    </row>
+    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D583" s="1"/>
+    </row>
+    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D584" s="1"/>
+    </row>
+    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D585" s="1"/>
+    </row>
+    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D586" s="1"/>
+    </row>
+    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D587" s="1"/>
+    </row>
+    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D588" s="1"/>
+    </row>
+    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D589" s="1"/>
+    </row>
+    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D590" s="1"/>
+    </row>
+    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D591" s="1"/>
+    </row>
+    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D592" s="1"/>
+    </row>
+    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D593" s="1"/>
+    </row>
+    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D594" s="1"/>
+    </row>
+    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D595" s="1"/>
+    </row>
+    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D596" s="1"/>
+    </row>
+    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D597" s="1"/>
+    </row>
+    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D598" s="1"/>
+    </row>
+    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D599" s="1"/>
+    </row>
+    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D600" s="1"/>
+    </row>
+    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D601" s="1"/>
+    </row>
+    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D602" s="1"/>
+    </row>
+    <row r="603" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D603" s="1"/>
+    </row>
+    <row r="604" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D604" s="1"/>
+    </row>
+    <row r="605" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D605" s="1"/>
+    </row>
+    <row r="606" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D606" s="1"/>
+    </row>
+    <row r="607" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D607" s="1"/>
+    </row>
+    <row r="608" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D608" s="1"/>
+    </row>
+    <row r="609" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D609" s="1"/>
+    </row>
+    <row r="610" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D610" s="1"/>
+    </row>
+    <row r="611" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D611" s="1"/>
+    </row>
+    <row r="612" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D612" s="1"/>
+    </row>
+    <row r="613" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D613" s="1"/>
+    </row>
+    <row r="614" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D614" s="1"/>
+    </row>
+    <row r="615" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D615" s="1"/>
+    </row>
+    <row r="616" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D616" s="1"/>
+    </row>
+    <row r="617" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D617" s="1"/>
+    </row>
+    <row r="618" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D618" s="1"/>
+    </row>
+    <row r="619" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D619" s="1"/>
+    </row>
+    <row r="620" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D620" s="1"/>
+    </row>
+    <row r="621" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D621" s="1"/>
+    </row>
+    <row r="622" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D622" s="1"/>
+    </row>
+    <row r="623" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D623" s="1"/>
+    </row>
+    <row r="624" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D624" s="1"/>
+    </row>
+    <row r="625" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D625" s="1"/>
+    </row>
+    <row r="626" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D626" s="1"/>
+    </row>
+    <row r="627" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D627" s="1"/>
+    </row>
+    <row r="628" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D628" s="1"/>
+    </row>
+    <row r="629" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D629" s="1"/>
+    </row>
+    <row r="630" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D630" s="1"/>
+    </row>
+    <row r="631" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D631" s="1"/>
+    </row>
+    <row r="632" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D632" s="1"/>
+    </row>
+    <row r="633" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D633" s="1"/>
+    </row>
+    <row r="634" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D634" s="1"/>
+    </row>
+    <row r="635" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D635" s="1"/>
+    </row>
+    <row r="636" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D636" s="1"/>
+    </row>
+    <row r="637" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D637" s="1"/>
+    </row>
+    <row r="638" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D638" s="1"/>
+    </row>
+    <row r="639" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D639" s="1"/>
+    </row>
+    <row r="640" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D640" s="1"/>
+    </row>
+    <row r="641" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D641" s="1"/>
+    </row>
+    <row r="642" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D642" s="1"/>
+    </row>
+    <row r="643" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D643" s="1"/>
+    </row>
+    <row r="644" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D644" s="1"/>
+    </row>
+    <row r="645" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D645" s="1"/>
+    </row>
+    <row r="646" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D646" s="1"/>
+    </row>
+    <row r="647" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D647" s="1"/>
+    </row>
+    <row r="648" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D648" s="1"/>
+    </row>
+    <row r="649" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D649" s="1"/>
+    </row>
+    <row r="650" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D650" s="1"/>
+    </row>
+    <row r="651" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D651" s="1"/>
+    </row>
+    <row r="652" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D652" s="1"/>
+    </row>
+    <row r="653" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D653" s="1"/>
+    </row>
+    <row r="654" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D654" s="1"/>
+    </row>
+    <row r="655" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D655" s="1"/>
+    </row>
+    <row r="656" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D656" s="1"/>
+    </row>
+    <row r="657" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D657" s="1"/>
+    </row>
+    <row r="658" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D658" s="1"/>
+    </row>
+    <row r="659" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D659" s="1"/>
+    </row>
+    <row r="660" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D660" s="1"/>
+    </row>
+    <row r="661" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D661" s="1"/>
+    </row>
+    <row r="662" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D662" s="1"/>
+    </row>
+    <row r="663" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D663" s="1"/>
+    </row>
+    <row r="664" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D664" s="1"/>
+    </row>
+    <row r="665" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D665" s="1"/>
+    </row>
+    <row r="666" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D666" s="1"/>
+    </row>
+    <row r="667" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D667" s="1"/>
+    </row>
+    <row r="668" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D668" s="1"/>
+    </row>
+    <row r="669" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D669" s="1"/>
+    </row>
+    <row r="670" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D670" s="1"/>
+    </row>
+    <row r="671" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D671" s="1"/>
+    </row>
+    <row r="672" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D672" s="1"/>
+    </row>
+    <row r="673" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D673" s="1"/>
+    </row>
+    <row r="674" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D674" s="1"/>
+    </row>
+    <row r="675" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D675" s="1"/>
+    </row>
+    <row r="676" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D676" s="1"/>
+    </row>
+    <row r="677" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D677" s="1"/>
+    </row>
+    <row r="678" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D678" s="1"/>
+    </row>
+    <row r="679" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D679" s="1"/>
+    </row>
+    <row r="680" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D680" s="1"/>
+    </row>
+    <row r="681" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D681" s="1"/>
+    </row>
+    <row r="682" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D682" s="1"/>
+    </row>
+    <row r="683" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D683" s="1"/>
+    </row>
+    <row r="684" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D684" s="1"/>
+    </row>
+    <row r="685" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D685" s="1"/>
+    </row>
+    <row r="686" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D686" s="1"/>
+    </row>
+    <row r="687" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D687" s="1"/>
+    </row>
+    <row r="688" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D688" s="1"/>
+    </row>
+    <row r="689" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D689" s="1"/>
+    </row>
+    <row r="690" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D690" s="1"/>
+    </row>
+    <row r="691" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D691" s="1"/>
+    </row>
+    <row r="692" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D692" s="1"/>
+    </row>
+    <row r="693" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D693" s="1"/>
+    </row>
+    <row r="694" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D694" s="1"/>
+    </row>
+    <row r="695" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D695" s="1"/>
+    </row>
+    <row r="696" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D696" s="1"/>
+    </row>
+    <row r="697" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D697" s="1"/>
+    </row>
+    <row r="698" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D698" s="1"/>
+    </row>
+    <row r="699" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D699" s="1"/>
+    </row>
+    <row r="700" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D700" s="1"/>
+    </row>
+    <row r="701" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D701" s="1"/>
+    </row>
+    <row r="702" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D702" s="1"/>
+    </row>
+    <row r="703" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D703" s="1"/>
+    </row>
+    <row r="704" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D704" s="1"/>
+    </row>
+    <row r="705" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D705" s="1"/>
+    </row>
+    <row r="706" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D706" s="1"/>
+    </row>
+    <row r="707" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D707" s="1"/>
+    </row>
+    <row r="708" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D708" s="1"/>
+    </row>
+    <row r="709" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D709" s="1"/>
+    </row>
+    <row r="710" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D710" s="1"/>
+    </row>
+    <row r="711" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D711" s="1"/>
+    </row>
+    <row r="712" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D712" s="1"/>
+    </row>
+    <row r="713" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D713" s="1"/>
+    </row>
+    <row r="714" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D714" s="1"/>
+    </row>
+    <row r="715" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D715" s="1"/>
+    </row>
+    <row r="716" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D716" s="1"/>
+    </row>
+    <row r="717" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D717" s="1"/>
+    </row>
+    <row r="718" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D718" s="1"/>
+    </row>
+    <row r="719" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D719" s="1"/>
+    </row>
+    <row r="720" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D720" s="1"/>
+    </row>
+    <row r="721" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D721" s="1"/>
+    </row>
+    <row r="722" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D722" s="1"/>
+    </row>
+    <row r="723" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D723" s="1"/>
+    </row>
+    <row r="724" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D724" s="1"/>
+    </row>
+    <row r="725" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D725" s="1"/>
+    </row>
+    <row r="726" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D726" s="1"/>
+    </row>
+    <row r="727" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D727" s="1"/>
+    </row>
+    <row r="728" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D728" s="1"/>
+    </row>
+    <row r="729" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D729" s="1"/>
+    </row>
+    <row r="730" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D730" s="1"/>
+    </row>
+    <row r="731" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D731" s="1"/>
+    </row>
+    <row r="732" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D732" s="1"/>
+    </row>
+    <row r="733" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D733" s="1"/>
+    </row>
+    <row r="734" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D734" s="1"/>
+    </row>
+    <row r="735" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D735" s="1"/>
+    </row>
+    <row r="736" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D736" s="1"/>
+    </row>
+    <row r="737" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D737" s="1"/>
+    </row>
+    <row r="738" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D738" s="1"/>
+    </row>
+    <row r="739" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D739" s="1"/>
+    </row>
+    <row r="740" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D740" s="1"/>
+    </row>
+    <row r="741" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D741" s="1"/>
+    </row>
+    <row r="742" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D742" s="1"/>
+    </row>
+    <row r="743" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D743" s="1"/>
+    </row>
+    <row r="744" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D744" s="1"/>
+    </row>
+    <row r="745" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D745" s="1"/>
+    </row>
+    <row r="746" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D746" s="1"/>
+    </row>
+    <row r="747" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D747" s="1"/>
+    </row>
+    <row r="748" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D748" s="1"/>
+    </row>
+    <row r="749" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D749" s="1"/>
+    </row>
+    <row r="750" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D750" s="1"/>
+    </row>
+    <row r="751" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D751" s="1"/>
+    </row>
+    <row r="752" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D752" s="1"/>
+    </row>
+    <row r="753" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D753" s="1"/>
+    </row>
+    <row r="754" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D754" s="1"/>
+    </row>
+    <row r="755" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D755" s="1"/>
+    </row>
+    <row r="756" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D756" s="1"/>
+    </row>
+    <row r="757" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D757" s="1"/>
+    </row>
+    <row r="758" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D758" s="1"/>
+    </row>
+    <row r="759" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D759" s="1"/>
+    </row>
+    <row r="760" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D760" s="1"/>
+    </row>
+    <row r="761" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D761" s="1"/>
+    </row>
+    <row r="762" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D762" s="1"/>
+    </row>
+    <row r="763" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D763" s="1"/>
+    </row>
+    <row r="764" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D764" s="1"/>
+    </row>
+    <row r="765" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D765" s="1"/>
+    </row>
+    <row r="766" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D766" s="1"/>
+    </row>
+    <row r="767" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D767" s="1"/>
+    </row>
+    <row r="768" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D768" s="1"/>
+    </row>
+    <row r="769" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D769" s="1"/>
+    </row>
+    <row r="770" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D770" s="1"/>
+    </row>
+    <row r="771" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D771" s="1"/>
+    </row>
+    <row r="772" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D772" s="1"/>
+    </row>
+    <row r="773" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D773" s="1"/>
+    </row>
+    <row r="774" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D774" s="1"/>
+    </row>
+    <row r="775" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D775" s="1"/>
+    </row>
+    <row r="776" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D776" s="1"/>
+    </row>
+    <row r="777" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D777" s="1"/>
+    </row>
+    <row r="778" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D778" s="1"/>
+    </row>
+    <row r="779" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D779" s="1"/>
+    </row>
+    <row r="780" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D780" s="1"/>
+    </row>
+    <row r="781" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D781" s="1"/>
+    </row>
+    <row r="782" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D782" s="1"/>
+    </row>
+    <row r="783" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D783" s="1"/>
+    </row>
+    <row r="784" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D784" s="1"/>
+    </row>
+    <row r="785" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D785" s="1"/>
+    </row>
+    <row r="786" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D786" s="1"/>
+    </row>
+    <row r="787" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D787" s="1"/>
+    </row>
+    <row r="788" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D788" s="1"/>
+    </row>
+    <row r="789" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D789" s="1"/>
+    </row>
+    <row r="790" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D790" s="1"/>
+    </row>
+    <row r="791" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D791" s="1"/>
+    </row>
+    <row r="792" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D792" s="1"/>
+    </row>
+    <row r="793" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D793" s="1"/>
+    </row>
+    <row r="794" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D794" s="1"/>
+    </row>
+    <row r="795" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D795" s="1"/>
+    </row>
+    <row r="796" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D796" s="1"/>
+    </row>
+    <row r="797" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D797" s="1"/>
+    </row>
+    <row r="798" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D798" s="1"/>
+    </row>
+    <row r="799" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D799" s="1"/>
+    </row>
+    <row r="800" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D800" s="1"/>
+    </row>
+    <row r="801" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D801" s="1"/>
+    </row>
+    <row r="802" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D802" s="1"/>
+    </row>
+    <row r="803" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D803" s="1"/>
+    </row>
+    <row r="804" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D804" s="1"/>
+    </row>
+    <row r="805" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D805" s="1"/>
+    </row>
+    <row r="806" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D806" s="1"/>
+    </row>
+    <row r="807" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D807" s="1"/>
+    </row>
+    <row r="808" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D808" s="1"/>
+    </row>
+    <row r="809" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D809" s="1"/>
+    </row>
+    <row r="810" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D810" s="1"/>
+    </row>
+    <row r="811" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D811" s="1"/>
+    </row>
+    <row r="812" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D812" s="1"/>
+    </row>
+    <row r="813" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D813" s="1"/>
+    </row>
+    <row r="814" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D814" s="1"/>
+    </row>
+    <row r="815" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D815" s="1"/>
+    </row>
+    <row r="816" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D816" s="1"/>
+    </row>
+    <row r="817" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D817" s="1"/>
+    </row>
+    <row r="818" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D818" s="1"/>
+    </row>
+    <row r="819" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D819" s="1"/>
+    </row>
+    <row r="820" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D820" s="1"/>
+    </row>
+    <row r="821" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D821" s="1"/>
+    </row>
+    <row r="822" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D822" s="1"/>
+    </row>
+    <row r="823" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D823" s="1"/>
+    </row>
+    <row r="824" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D824" s="1"/>
+    </row>
+    <row r="825" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D825" s="1"/>
+    </row>
+    <row r="826" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D826" s="1"/>
+    </row>
+    <row r="827" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D827" s="1"/>
+    </row>
+    <row r="828" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D828" s="1"/>
+    </row>
+    <row r="829" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D829" s="1"/>
+    </row>
+    <row r="830" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D830" s="1"/>
+    </row>
+    <row r="831" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D831" s="1"/>
+    </row>
+    <row r="832" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D832" s="1"/>
+    </row>
+    <row r="833" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D833" s="1"/>
+    </row>
+    <row r="834" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D834" s="1"/>
+    </row>
+    <row r="835" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D835" s="1"/>
+    </row>
+    <row r="836" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D836" s="1"/>
+    </row>
+    <row r="837" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D837" s="1"/>
+    </row>
+    <row r="838" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D838" s="1"/>
+    </row>
+    <row r="839" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D839" s="1"/>
+    </row>
+    <row r="840" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D840" s="1"/>
+    </row>
+    <row r="841" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D841" s="1"/>
+    </row>
+    <row r="842" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D842" s="1"/>
+    </row>
+    <row r="843" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D843" s="1"/>
+    </row>
+    <row r="844" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D844" s="1"/>
+    </row>
+    <row r="845" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D845" s="1"/>
+    </row>
+    <row r="846" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D846" s="1"/>
+    </row>
+    <row r="847" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D847" s="1"/>
+    </row>
+    <row r="848" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D848" s="1"/>
+    </row>
+    <row r="849" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D849" s="1"/>
+    </row>
+    <row r="850" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D850" s="1"/>
+    </row>
+    <row r="851" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D851" s="1"/>
+    </row>
+    <row r="852" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D852" s="1"/>
+    </row>
+    <row r="853" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D853" s="1"/>
+    </row>
+    <row r="854" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D854" s="1"/>
+    </row>
+    <row r="855" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D855" s="1"/>
+    </row>
+    <row r="856" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D856" s="1"/>
+    </row>
+    <row r="857" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D857" s="1"/>
+    </row>
+    <row r="858" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D858" s="1"/>
+    </row>
+    <row r="859" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D859" s="1"/>
+    </row>
+    <row r="860" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D860" s="1"/>
+    </row>
+    <row r="861" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D861" s="1"/>
+    </row>
+    <row r="862" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D862" s="1"/>
+    </row>
+    <row r="863" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D863" s="1"/>
+    </row>
+    <row r="864" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D864" s="1"/>
+    </row>
+    <row r="865" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D865" s="1"/>
+    </row>
+    <row r="866" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D866" s="1"/>
+    </row>
+    <row r="867" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D867" s="1"/>
+    </row>
+    <row r="868" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D868" s="1"/>
+    </row>
+    <row r="869" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D869" s="1"/>
+    </row>
+    <row r="870" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D870" s="1"/>
+    </row>
+    <row r="871" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D871" s="1"/>
+    </row>
+    <row r="872" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D872" s="1"/>
+    </row>
+    <row r="873" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D873" s="1"/>
+    </row>
+    <row r="874" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D874" s="1"/>
+    </row>
+    <row r="875" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D875" s="1"/>
+    </row>
+    <row r="876" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D876" s="1"/>
+    </row>
+    <row r="877" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D877" s="1"/>
+    </row>
+    <row r="878" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D878" s="1"/>
+    </row>
+    <row r="879" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D879" s="1"/>
+    </row>
+    <row r="880" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D880" s="1"/>
+    </row>
+    <row r="881" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D881" s="1"/>
+    </row>
+    <row r="882" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D882" s="1"/>
+    </row>
+    <row r="883" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D883" s="1"/>
+    </row>
+    <row r="884" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D884" s="1"/>
+    </row>
+    <row r="885" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D885" s="1"/>
+    </row>
+    <row r="886" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D886" s="1"/>
+    </row>
+    <row r="887" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D887" s="1"/>
+    </row>
+    <row r="888" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D888" s="1"/>
+    </row>
+    <row r="889" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D889" s="1"/>
+    </row>
+    <row r="890" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D890" s="1"/>
+    </row>
+    <row r="891" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D891" s="1"/>
+    </row>
+    <row r="892" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D892" s="1"/>
+    </row>
+    <row r="893" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D893" s="1"/>
+    </row>
+    <row r="894" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D894" s="1"/>
+    </row>
+    <row r="895" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D895" s="1"/>
+    </row>
+    <row r="896" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D896" s="1"/>
+    </row>
+    <row r="897" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D897" s="1"/>
+    </row>
+    <row r="898" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D898" s="1"/>
+    </row>
+    <row r="899" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D899" s="1"/>
+    </row>
+    <row r="900" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D900" s="1"/>
+    </row>
+    <row r="901" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D901" s="1"/>
+    </row>
+    <row r="902" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D902" s="1"/>
+    </row>
+    <row r="903" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D903" s="1"/>
+    </row>
+    <row r="904" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D904" s="1"/>
+    </row>
+    <row r="905" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D905" s="1"/>
+    </row>
+    <row r="906" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D906" s="1"/>
+    </row>
+    <row r="907" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D907" s="1"/>
+    </row>
+    <row r="908" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D908" s="1"/>
+    </row>
+    <row r="909" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D909" s="1"/>
+    </row>
+    <row r="910" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D910" s="1"/>
+    </row>
+    <row r="911" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D911" s="1"/>
+    </row>
+    <row r="912" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D912" s="1"/>
+    </row>
+    <row r="913" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D913" s="1"/>
+    </row>
+    <row r="914" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D914" s="1"/>
+    </row>
+    <row r="915" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D915" s="1"/>
+    </row>
+    <row r="916" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D916" s="1"/>
+    </row>
+    <row r="917" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D917" s="1"/>
+    </row>
+    <row r="918" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D918" s="1"/>
+    </row>
+    <row r="919" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D919" s="1"/>
+    </row>
+    <row r="920" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D920" s="1"/>
+    </row>
+    <row r="921" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D921" s="1"/>
+    </row>
+    <row r="922" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D922" s="1"/>
+    </row>
+    <row r="923" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D923" s="1"/>
+    </row>
+    <row r="924" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D924" s="1"/>
+    </row>
+    <row r="925" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D925" s="1"/>
+    </row>
+    <row r="926" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D926" s="1"/>
+    </row>
+    <row r="927" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D927" s="1"/>
+    </row>
+    <row r="928" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D928" s="1"/>
+    </row>
+    <row r="929" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D929" s="1"/>
+    </row>
+    <row r="930" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D930" s="1"/>
+    </row>
+    <row r="931" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D931" s="1"/>
+    </row>
+    <row r="932" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D932" s="1"/>
+    </row>
+    <row r="933" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D933" s="1"/>
+    </row>
+    <row r="934" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D934" s="1"/>
+    </row>
+    <row r="935" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D935" s="1"/>
+    </row>
+    <row r="936" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D936" s="1"/>
+    </row>
+    <row r="937" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D937" s="1"/>
+    </row>
+    <row r="938" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D938" s="1"/>
+    </row>
+    <row r="939" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D939" s="1"/>
+    </row>
+    <row r="940" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D940" s="1"/>
+    </row>
+    <row r="941" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D941" s="1"/>
+    </row>
+    <row r="942" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D942" s="1"/>
+    </row>
+    <row r="943" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D943" s="1"/>
+    </row>
+    <row r="944" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D944" s="1"/>
+    </row>
+    <row r="945" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D945" s="1"/>
+    </row>
+    <row r="946" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D946" s="1"/>
+    </row>
+    <row r="947" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D947" s="1"/>
+    </row>
+    <row r="948" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D948" s="1"/>
+    </row>
+    <row r="949" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D949" s="1"/>
+    </row>
+    <row r="950" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D950" s="1"/>
+    </row>
+    <row r="951" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D951" s="1"/>
+    </row>
+    <row r="952" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D952" s="1"/>
+    </row>
+    <row r="953" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D953" s="1"/>
+    </row>
+    <row r="954" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D954" s="1"/>
+    </row>
+    <row r="955" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D955" s="1"/>
+    </row>
+    <row r="956" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D956" s="1"/>
+    </row>
+    <row r="957" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D957" s="1"/>
+    </row>
+    <row r="958" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D958" s="1"/>
+    </row>
+    <row r="959" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D959" s="1"/>
+    </row>
+    <row r="960" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D960" s="1"/>
+    </row>
+    <row r="961" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D961" s="1"/>
+    </row>
+    <row r="962" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D962" s="1"/>
+    </row>
+    <row r="963" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D963" s="1"/>
+    </row>
+    <row r="964" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D964" s="1"/>
+    </row>
+    <row r="965" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D965" s="1"/>
+    </row>
+    <row r="966" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D966" s="1"/>
+    </row>
+    <row r="967" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D967" s="1"/>
+    </row>
+    <row r="968" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D968" s="1"/>
+    </row>
+    <row r="969" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D969" s="1"/>
+    </row>
+    <row r="970" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D970" s="1"/>
+    </row>
+    <row r="971" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D971" s="1"/>
+    </row>
+    <row r="972" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D972" s="1"/>
+    </row>
+    <row r="973" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D973" s="1"/>
+    </row>
+    <row r="974" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D974" s="1"/>
+    </row>
+    <row r="975" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D975" s="1"/>
+    </row>
+    <row r="976" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D976" s="1"/>
+    </row>
+    <row r="977" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D977" s="1"/>
+    </row>
+    <row r="978" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D978" s="1"/>
+    </row>
+    <row r="979" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D979" s="1"/>
+    </row>
+    <row r="980" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D980" s="1"/>
+    </row>
+    <row r="981" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D981" s="1"/>
+    </row>
+    <row r="982" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D982" s="1"/>
+    </row>
+    <row r="983" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D983" s="1"/>
+    </row>
+    <row r="984" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D984" s="1"/>
+    </row>
+    <row r="985" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D985" s="1"/>
+    </row>
+    <row r="986" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D986" s="1"/>
+    </row>
+    <row r="987" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D987" s="1"/>
+    </row>
+    <row r="988" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D988" s="1"/>
+    </row>
+    <row r="989" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D989" s="1"/>
+    </row>
+    <row r="990" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D990" s="1"/>
+    </row>
+    <row r="991" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D991" s="1"/>
+    </row>
+    <row r="992" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D992" s="1"/>
+    </row>
+    <row r="993" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D993" s="1"/>
+    </row>
+    <row r="994" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D994" s="1"/>
+    </row>
+    <row r="995" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D995" s="1"/>
+    </row>
+    <row r="996" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D996" s="1"/>
+    </row>
+    <row r="997" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D997" s="1"/>
+    </row>
+    <row r="998" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D998" s="1"/>
+    </row>
+    <row r="999" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D999" s="1"/>
+    </row>
+    <row r="1000" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1000" s="1"/>
+    </row>
+    <row r="1001" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1001" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bNNddISpMyTrm8UtPUZPHs6zS9MTbwSkn856yDb8dnCC/zX9RfDo9WhjY6N/7Vz0vku1N61LeTlrFOTwGHUbAQ==" saltValue="UOH0QoMZgwA8n8k3bLOC2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="opW4VYGvMzLHaomVHPyKXt22WSCcyYop7Mlp6qh2Y81yM/klIw5Bmb3VWlfMuvPv0Z9/rkjMNbGD23Ennnu5+w==" saltValue="Xh+hscJ3xuvwL5Nx0or24Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF03D6DB-6414-478B-83F3-96544C1F670A}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$99</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B683FD06-1C60-496C-98A4-A29CB40AE4C2}">
+          <x14:formula1>
+            <xm:f>Sheet3!$A$1:$A$99</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FCFC5436-506F-4E2C-BAFD-389E9A764FAA}">
+          <x14:formula1>
+            <xm:f>Sheet4!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3F03AA0-0D82-4138-93E6-C0C4E1F0B403}">
+          <x14:formula1>
+            <xm:f>Sheet3!$A$1:$A$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203AAA3B-6743-4848-B583-7CDC0CCF4A02}">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="FleVPwkDUDbAKYG/wavuuU2xRAJKMLNyB/pVaGsCgLzmFgQ8W/eTrGy2QLzki1CZLbHOfZhDltU8iENHv0Fn4g==" saltValue="fYm0+N6B7GFlPCcLPEdaWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF652D56-5BDD-4064-9ED5-3199728100FA}">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="+OfQRwSSeXT8SDq8KfP0fJQo8XU2/02fcGsVJvgwOB49aUi61hEdPgk7M6E9m6ZPVllIxU0sB5W5XnskXpYT4Q==" saltValue="NrPbpRaOGfuL7kSHg2xyvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82397E5-A10E-49A6-B152-A71AB4EA0C02}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="w2tqjnBSDm721YOYDOYBwmssSbNTiG+y2LJLQo5fgIRcoZPQW/KuBNIo9dUN5RozTJRL1VQslhyBw0K7iT+ujA==" saltValue="Ah31loF/a5ueNdf77FwzzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/application/assets/other/staffsample.xlsx
+++ b/application/assets/other/staffsample.xlsx
@@ -1,45 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E82E2-66B6-4024-9F89-A2DDE2E1F944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCA9C63-0563-4D7D-916D-4A8B4039DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4980" windowWidth="38700" windowHeight="15345" xr2:uid="{9A84109D-DAB1-49D9-99F2-C799394ED04A}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="222">
   <si>
     <t>Name</t>
   </si>
@@ -47,10 +31,658 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>Position Code</t>
+  </si>
+  <si>
     <t>Department Code</t>
   </si>
   <si>
-    <t>Position Code</t>
+    <t>ACCNT&gt;Accountant</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>RSDC</t>
+  </si>
+  <si>
+    <t>ACCPAY&gt;Account. Payable</t>
+  </si>
+  <si>
+    <t>Account. Payable</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>ACCRCV&gt;Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>AGNT&gt;Agent</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>IRD</t>
+  </si>
+  <si>
+    <t>LBYLNG</t>
+  </si>
+  <si>
+    <t>RSRVT</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>ASRNTMGR&gt;Assistant Restaurant Manager</t>
+  </si>
+  <si>
+    <t>Assistant Restaurant Manager</t>
+  </si>
+  <si>
+    <t>RBCHN</t>
+  </si>
+  <si>
+    <t>ASS&gt;Assistant</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>CHGR</t>
+  </si>
+  <si>
+    <t>RMSRVC</t>
+  </si>
+  <si>
+    <t>ASSPL&gt;Assistant People &amp; Culture</t>
+  </si>
+  <si>
+    <t>Assistant People &amp; Culture</t>
+  </si>
+  <si>
+    <t>PEOPLE &amp; CULTURE</t>
+  </si>
+  <si>
+    <t>ASSSERV&gt;</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>ASSTMGR&gt;Assistant Manager</t>
+  </si>
+  <si>
+    <t>Assistant Manager</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>F&amp;B</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>LDRY</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>ASSTSERV&gt;Assistant Server</t>
+  </si>
+  <si>
+    <t>Assistant Server</t>
+  </si>
+  <si>
+    <t>ASSWTR&gt;Assistant Waiter</t>
+  </si>
+  <si>
+    <t>Assistant Waiter</t>
+  </si>
+  <si>
+    <t>ASSWTRS&gt;Assistant Waitress</t>
+  </si>
+  <si>
+    <t>Assistant Waitress</t>
+  </si>
+  <si>
+    <t>ATTN&gt;Attendant</t>
+  </si>
+  <si>
+    <t>Attendant</t>
+  </si>
+  <si>
+    <t>KDSCLB</t>
+  </si>
+  <si>
+    <t>KIDSCLB</t>
+  </si>
+  <si>
+    <t>P&amp;B</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>AUDR&gt;Income Auditor</t>
+  </si>
+  <si>
+    <t>Income Auditor</t>
+  </si>
+  <si>
+    <t>BELB&gt;Bellboy</t>
+  </si>
+  <si>
+    <t>Bellboy</t>
+  </si>
+  <si>
+    <t>DOORSV</t>
+  </si>
+  <si>
+    <t>BELM&gt;Bellman</t>
+  </si>
+  <si>
+    <t>Bellman</t>
+  </si>
+  <si>
+    <t>GST.SRV</t>
+  </si>
+  <si>
+    <t>GSTSERV</t>
+  </si>
+  <si>
+    <t>BRSTA&gt;Barista</t>
+  </si>
+  <si>
+    <t>Barista</t>
+  </si>
+  <si>
+    <t>N.ROUZAUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTNR&gt;Bartender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bartender </t>
+  </si>
+  <si>
+    <t>SPU</t>
+  </si>
+  <si>
+    <t>CDP&gt;Chef De Partie</t>
+  </si>
+  <si>
+    <t>Chef De Partie</t>
+  </si>
+  <si>
+    <t>DL-RBCHN</t>
+  </si>
+  <si>
+    <t>KTN</t>
+  </si>
+  <si>
+    <t>PASKTN</t>
+  </si>
+  <si>
+    <t>CHEF&gt;Chef</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>CMCHF&gt;Commis Chef</t>
+  </si>
+  <si>
+    <t>Commis Chef</t>
+  </si>
+  <si>
+    <t>COM 1&gt;Commis I</t>
+  </si>
+  <si>
+    <t>Commis I</t>
+  </si>
+  <si>
+    <t>COM 2&gt;Commis II</t>
+  </si>
+  <si>
+    <t>Commis II</t>
+  </si>
+  <si>
+    <t>COMM&gt;Commis</t>
+  </si>
+  <si>
+    <t>Commis</t>
+  </si>
+  <si>
+    <t>CON&gt;Concierge</t>
+  </si>
+  <si>
+    <t>Concierge</t>
+  </si>
+  <si>
+    <t>COORNR&gt;Coordinator</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>CSLD&gt;Community &amp; Style Lead</t>
+  </si>
+  <si>
+    <t>Community &amp; Style Lead</t>
+  </si>
+  <si>
+    <t>DCDP&gt;Demi Chef De Partie</t>
+  </si>
+  <si>
+    <t>Demi Chef De Partie</t>
+  </si>
+  <si>
+    <t>CLNY</t>
+  </si>
+  <si>
+    <t>DRV&gt;Driver</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>ENGR&gt;Engineer</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>EVENTS&gt;Events</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>BQTNG</t>
+  </si>
+  <si>
+    <t>EXCH&gt;Executive Chef</t>
+  </si>
+  <si>
+    <t>Executive Chef</t>
+  </si>
+  <si>
+    <t>EXPC&gt;Executive Pastry Chef</t>
+  </si>
+  <si>
+    <t>Executive Pastry Chef</t>
+  </si>
+  <si>
+    <t>EXSC&gt;Executive Sous Chef</t>
+  </si>
+  <si>
+    <t>Executive Sous Chef</t>
+  </si>
+  <si>
+    <t>FOM&gt;FO Manager</t>
+  </si>
+  <si>
+    <t>FO Manager</t>
+  </si>
+  <si>
+    <t>HDBAR&gt;Head Bartender</t>
+  </si>
+  <si>
+    <t>Head Bartender</t>
+  </si>
+  <si>
+    <t>HDSOM&gt;Head Sommelier</t>
+  </si>
+  <si>
+    <t>Head Sommelier</t>
+  </si>
+  <si>
+    <t>HMGR&gt;Hygiene Manager</t>
+  </si>
+  <si>
+    <t>Hygiene Manager</t>
+  </si>
+  <si>
+    <t>HOS&gt;Hostess</t>
+  </si>
+  <si>
+    <t>Hostess</t>
+  </si>
+  <si>
+    <t>PLOU</t>
+  </si>
+  <si>
+    <t>LOBAM&gt;Lobby Ambassador</t>
+  </si>
+  <si>
+    <t>Lobby Ambassador</t>
+  </si>
+  <si>
+    <t>MGR&gt;Manager</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>SALMARK</t>
+  </si>
+  <si>
+    <t>STW</t>
+  </si>
+  <si>
+    <t>MKTCR&gt;Marketing Coordinator</t>
+  </si>
+  <si>
+    <t>Marketing Coordinator</t>
+  </si>
+  <si>
+    <t>MNTA&gt;Maintenance</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>MTNSPV&gt;Maintenance Supervisor</t>
+  </si>
+  <si>
+    <t>Maintenance Supervisor</t>
+  </si>
+  <si>
+    <t>PAATNT&gt;Pool Attendant</t>
+  </si>
+  <si>
+    <t>Pool Attendant</t>
+  </si>
+  <si>
+    <t>PMSTR&gt;Pay Master</t>
+  </si>
+  <si>
+    <t>Pay Master</t>
+  </si>
+  <si>
+    <t>PURMGR&gt;Purchasing Manager</t>
+  </si>
+  <si>
+    <t>Purchasing Manager</t>
+  </si>
+  <si>
+    <t>RC&gt;Receptionist</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>RECCLE&gt;Receiving Clerk</t>
+  </si>
+  <si>
+    <t>Receiving Clerk</t>
+  </si>
+  <si>
+    <t>RMATTN&gt;Room Attendant</t>
+  </si>
+  <si>
+    <t>Room Attendant</t>
+  </si>
+  <si>
+    <t>RNTMGR&gt;Restaurant Manager</t>
+  </si>
+  <si>
+    <t>Restaurant Manager</t>
+  </si>
+  <si>
+    <t>RSVAG&gt;Reservation Agent</t>
+  </si>
+  <si>
+    <t>Reservation Agent</t>
+  </si>
+  <si>
+    <t>SC&gt;Sous Chef</t>
+  </si>
+  <si>
+    <t>Sous Chef</t>
+  </si>
+  <si>
+    <t>SCDP&gt;Senior Chef De Partie</t>
+  </si>
+  <si>
+    <t>Senior Chef De Partie</t>
+  </si>
+  <si>
+    <t>SECSPV&gt;Security Supervisor</t>
+  </si>
+  <si>
+    <t>Security Supervisor</t>
+  </si>
+  <si>
+    <t>SER&gt;Server</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>DUCH</t>
+  </si>
+  <si>
+    <t>SMLIER&gt;Sommelier</t>
+  </si>
+  <si>
+    <t>Sommelier</t>
+  </si>
+  <si>
+    <t>SOOFF&gt;Security Officer</t>
+  </si>
+  <si>
+    <t>Security Officer</t>
+  </si>
+  <si>
+    <t>SPCHEF&gt;Chef De Cuisine</t>
+  </si>
+  <si>
+    <t>Chef De Cuisine</t>
+  </si>
+  <si>
+    <t>SPVR&gt;Supervisor</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>SWD&gt;Steward</t>
+  </si>
+  <si>
+    <t>Steward</t>
+  </si>
+  <si>
+    <t>TECH&gt;Technician</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>TER&gt;Therapist</t>
+  </si>
+  <si>
+    <t>Therapist</t>
+  </si>
+  <si>
+    <t>WTR&gt;Waiter</t>
+  </si>
+  <si>
+    <t>Waiter</t>
+  </si>
+  <si>
+    <t>WTRSS&gt;Waitress</t>
+  </si>
+  <si>
+    <t>Waitress</t>
+  </si>
+  <si>
+    <t>ADD&gt;All Day Dining</t>
+  </si>
+  <si>
+    <t>All Day Dining</t>
+  </si>
+  <si>
+    <t>CHGR&gt;Chicago Rare</t>
+  </si>
+  <si>
+    <t>Chicago Rare</t>
+  </si>
+  <si>
+    <t>DL-RBCHN&gt;Le Deli Robuchon</t>
+  </si>
+  <si>
+    <t>Le Deli Robuchon</t>
+  </si>
+  <si>
+    <t>DOORSV&gt;Door Service</t>
+  </si>
+  <si>
+    <t>Door Service</t>
+  </si>
+  <si>
+    <t>DUCH&gt;Duches</t>
+  </si>
+  <si>
+    <t>Duches</t>
+  </si>
+  <si>
+    <t>ENG&gt;Engineering</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>F&amp;B&gt;F&amp;B</t>
+  </si>
+  <si>
+    <t>FIN&gt;Finance</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>FO&gt;Front Office</t>
+  </si>
+  <si>
+    <t>Front Office</t>
+  </si>
+  <si>
+    <t>HK&gt;Housekeeping</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>IRD&gt;In Room Dining</t>
+  </si>
+  <si>
+    <t>In Room Dining</t>
+  </si>
+  <si>
+    <t>KIDSCLB&gt;Kids Club</t>
+  </si>
+  <si>
+    <t>Kids Club</t>
+  </si>
+  <si>
+    <t>KTN&gt;Kitchen</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>LBYLNG&gt;Lobby Lounge</t>
+  </si>
+  <si>
+    <t>Lobby Lounge</t>
+  </si>
+  <si>
+    <t>LDRY&gt;Laundry</t>
+  </si>
+  <si>
+    <t>Laundry</t>
+  </si>
+  <si>
+    <t>N.ROUZAUD&gt;Nicolas Rouzaud</t>
+  </si>
+  <si>
+    <t>Nicolas Rouzaud</t>
+  </si>
+  <si>
+    <t>P&amp;B&gt;Pool &amp; Beach</t>
+  </si>
+  <si>
+    <t>Pool &amp; Beach</t>
+  </si>
+  <si>
+    <t>PASKTN&gt;Pastry Kitchen</t>
+  </si>
+  <si>
+    <t>Pastry Kitchen</t>
+  </si>
+  <si>
+    <t>PEOPLE &amp; CULTURE&gt;P&amp;C</t>
+  </si>
+  <si>
+    <t>P&amp;C</t>
+  </si>
+  <si>
+    <t>RBCHN&gt;Robuchon</t>
+  </si>
+  <si>
+    <t>Robuchon</t>
+  </si>
+  <si>
+    <t>RMSRVC&gt;Room Service</t>
+  </si>
+  <si>
+    <t>Room Service</t>
+  </si>
+  <si>
+    <t>RSDC&gt;Residence</t>
+  </si>
+  <si>
+    <t>Residence</t>
+  </si>
+  <si>
+    <t>RSRVT&gt;Reservation</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>SEC&gt;Security</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>SPA&gt;SPA</t>
+  </si>
+  <si>
+    <t>TL&gt;Tea lounge</t>
+  </si>
+  <si>
+    <t>Tea lounge</t>
   </si>
   <si>
     <t>Male</t>
@@ -63,19 +695,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -87,8 +711,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -115,7 +739,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -128,9 +752,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,44 +762,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -203,31 +827,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -255,26 +862,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -283,147 +873,171 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C232E3BA-1715-4724-9C81-339106948324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -446,10 +1060,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3453,36 +4067,29 @@
       <c r="D1001" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="opW4VYGvMzLHaomVHPyKXt22WSCcyYop7Mlp6qh2Y81yM/klIw5Bmb3VWlfMuvPv0Z9/rkjMNbGD23Ennnu5+w==" saltValue="Xh+hscJ3xuvwL5Nx0or24Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EcphGl4BxS2+Jt4Wei1f+P+MZX2WU92DDzvg/3PrDNpo4GnN7FqeAaReEQwoyjyUl0Hd+zXzK9e9a5HV7KQmHQ==" saltValue="Go+dCv3aMH+lMvxueMXgAA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF03D6DB-6414-478B-83F3-96544C1F670A}">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$99</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B683FD06-1C60-496C-98A4-A29CB40AE4C2}">
-          <x14:formula1>
-            <xm:f>Sheet3!$A$1:$A$99</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D1001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FCFC5436-506F-4E2C-BAFD-389E9A764FAA}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet4!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1001</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3F03AA0-0D82-4138-93E6-C0C4E1F0B403}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>Sheet3!$A$1:$A$100</xm:f>
+            <xm:f>Sheet3!$A$1:$A$500</xm:f>
           </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
+          <xm:sqref>D2:D1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51CBD4AE-236F-4109-8585-FC468F0998C9}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$500</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1001</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3491,14 +4098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203AAA3B-6743-4848-B583-7CDC0CCF4A02}">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3507,510 +4114,1871 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" t="s">
+        <v>144</v>
+      </c>
+      <c r="C124" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" t="s">
+        <v>146</v>
+      </c>
+      <c r="C125" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" t="s">
+        <v>148</v>
+      </c>
+      <c r="C126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" t="s">
+        <v>150</v>
+      </c>
+      <c r="C127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" t="s">
+        <v>150</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" t="s">
+        <v>150</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>150</v>
+      </c>
+      <c r="C130" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" t="s">
+        <v>150</v>
+      </c>
+      <c r="C132" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" t="s">
+        <v>150</v>
+      </c>
+      <c r="C133" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" t="s">
+        <v>153</v>
+      </c>
+      <c r="C136" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" t="s">
+        <v>155</v>
+      </c>
+      <c r="C137" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" t="s">
+        <v>159</v>
+      </c>
+      <c r="C139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" t="s">
+        <v>159</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" t="s">
+        <v>159</v>
+      </c>
+      <c r="C142" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>158</v>
+      </c>
+      <c r="B143" t="s">
+        <v>159</v>
+      </c>
+      <c r="C143" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" t="s">
+        <v>159</v>
+      </c>
+      <c r="C146" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" t="s">
+        <v>159</v>
+      </c>
+      <c r="C147" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" t="s">
+        <v>159</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" t="s">
+        <v>159</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" t="s">
+        <v>159</v>
+      </c>
+      <c r="C150" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" t="s">
+        <v>159</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" t="s">
+        <v>167</v>
+      </c>
+      <c r="C161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FleVPwkDUDbAKYG/wavuuU2xRAJKMLNyB/pVaGsCgLzmFgQ8W/eTrGy2QLzki1CZLbHOfZhDltU8iENHv0Fn4g==" saltValue="fYm0+N6B7GFlPCcLPEdaWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF652D56-5BDD-4064-9ED5-3199728100FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4022,108 +5990,212 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -4418,13 +6490,13 @@
       <c r="B100" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+OfQRwSSeXT8SDq8KfP0fJQo8XU2/02fcGsVJvgwOB49aUi61hEdPgk7M6E9m6ZPVllIxU0sB5W5XnskXpYT4Q==" saltValue="NrPbpRaOGfuL7kSHg2xyvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qVwXkaJCcMV7RVATOj6KPuN+61hctuS9kiTGXCYNzptrZxTBiXI4gPTfzyO7g5w1gKsoEWUHR0rmZo0cJCXh5w==" saltValue="ErOyFYkYeCe0R2IylEtJEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82397E5-A10E-49A6-B152-A71AB4EA0C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4433,12 +6505,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/application/assets/other/staffsample.xlsx
+++ b/application/assets/other/staffsample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celac\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCA9C63-0563-4D7D-916D-4A8B4039DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0BAE4-2848-4CA8-A93E-BF52131DB72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="5025" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -35,654 +35,6 @@
   </si>
   <si>
     <t>Department Code</t>
-  </si>
-  <si>
-    <t>ACCNT&gt;Accountant</t>
-  </si>
-  <si>
-    <t>Accountant</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>RSDC</t>
-  </si>
-  <si>
-    <t>ACCPAY&gt;Account. Payable</t>
-  </si>
-  <si>
-    <t>Account. Payable</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>ACCRCV&gt;Accounts Receivable</t>
-  </si>
-  <si>
-    <t>Accounts Receivable</t>
-  </si>
-  <si>
-    <t>AGNT&gt;Agent</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>IRD</t>
-  </si>
-  <si>
-    <t>LBYLNG</t>
-  </si>
-  <si>
-    <t>RSRVT</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>ASRNTMGR&gt;Assistant Restaurant Manager</t>
-  </si>
-  <si>
-    <t>Assistant Restaurant Manager</t>
-  </si>
-  <si>
-    <t>RBCHN</t>
-  </si>
-  <si>
-    <t>ASS&gt;Assistant</t>
-  </si>
-  <si>
-    <t>Assistant</t>
-  </si>
-  <si>
-    <t>CHGR</t>
-  </si>
-  <si>
-    <t>RMSRVC</t>
-  </si>
-  <si>
-    <t>ASSPL&gt;Assistant People &amp; Culture</t>
-  </si>
-  <si>
-    <t>Assistant People &amp; Culture</t>
-  </si>
-  <si>
-    <t>PEOPLE &amp; CULTURE</t>
-  </si>
-  <si>
-    <t>ASSSERV&gt;</t>
-  </si>
-  <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>ASSTMGR&gt;Assistant Manager</t>
-  </si>
-  <si>
-    <t>Assistant Manager</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>F&amp;B</t>
-  </si>
-  <si>
-    <t>FO</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>LDRY</t>
-  </si>
-  <si>
-    <t>SEC</t>
-  </si>
-  <si>
-    <t>ASSTSERV&gt;Assistant Server</t>
-  </si>
-  <si>
-    <t>Assistant Server</t>
-  </si>
-  <si>
-    <t>ASSWTR&gt;Assistant Waiter</t>
-  </si>
-  <si>
-    <t>Assistant Waiter</t>
-  </si>
-  <si>
-    <t>ASSWTRS&gt;Assistant Waitress</t>
-  </si>
-  <si>
-    <t>Assistant Waitress</t>
-  </si>
-  <si>
-    <t>ATTN&gt;Attendant</t>
-  </si>
-  <si>
-    <t>Attendant</t>
-  </si>
-  <si>
-    <t>KDSCLB</t>
-  </si>
-  <si>
-    <t>KIDSCLB</t>
-  </si>
-  <si>
-    <t>P&amp;B</t>
-  </si>
-  <si>
-    <t>SPA</t>
-  </si>
-  <si>
-    <t>AUDR&gt;Income Auditor</t>
-  </si>
-  <si>
-    <t>Income Auditor</t>
-  </si>
-  <si>
-    <t>BELB&gt;Bellboy</t>
-  </si>
-  <si>
-    <t>Bellboy</t>
-  </si>
-  <si>
-    <t>DOORSV</t>
-  </si>
-  <si>
-    <t>BELM&gt;Bellman</t>
-  </si>
-  <si>
-    <t>Bellman</t>
-  </si>
-  <si>
-    <t>GST.SRV</t>
-  </si>
-  <si>
-    <t>GSTSERV</t>
-  </si>
-  <si>
-    <t>BRSTA&gt;Barista</t>
-  </si>
-  <si>
-    <t>Barista</t>
-  </si>
-  <si>
-    <t>N.ROUZAUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTNR&gt;Bartender </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bartender </t>
-  </si>
-  <si>
-    <t>SPU</t>
-  </si>
-  <si>
-    <t>CDP&gt;Chef De Partie</t>
-  </si>
-  <si>
-    <t>Chef De Partie</t>
-  </si>
-  <si>
-    <t>DL-RBCHN</t>
-  </si>
-  <si>
-    <t>KTN</t>
-  </si>
-  <si>
-    <t>PASKTN</t>
-  </si>
-  <si>
-    <t>CHEF&gt;Chef</t>
-  </si>
-  <si>
-    <t>Chef</t>
-  </si>
-  <si>
-    <t>CMCHF&gt;Commis Chef</t>
-  </si>
-  <si>
-    <t>Commis Chef</t>
-  </si>
-  <si>
-    <t>COM 1&gt;Commis I</t>
-  </si>
-  <si>
-    <t>Commis I</t>
-  </si>
-  <si>
-    <t>COM 2&gt;Commis II</t>
-  </si>
-  <si>
-    <t>Commis II</t>
-  </si>
-  <si>
-    <t>COMM&gt;Commis</t>
-  </si>
-  <si>
-    <t>Commis</t>
-  </si>
-  <si>
-    <t>CON&gt;Concierge</t>
-  </si>
-  <si>
-    <t>Concierge</t>
-  </si>
-  <si>
-    <t>COORNR&gt;Coordinator</t>
-  </si>
-  <si>
-    <t>Coordinator</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>CSLD&gt;Community &amp; Style Lead</t>
-  </si>
-  <si>
-    <t>Community &amp; Style Lead</t>
-  </si>
-  <si>
-    <t>DCDP&gt;Demi Chef De Partie</t>
-  </si>
-  <si>
-    <t>Demi Chef De Partie</t>
-  </si>
-  <si>
-    <t>CLNY</t>
-  </si>
-  <si>
-    <t>DRV&gt;Driver</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>ENGR&gt;Engineer</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>EVENTS&gt;Events</t>
-  </si>
-  <si>
-    <t>Events</t>
-  </si>
-  <si>
-    <t>BQTNG</t>
-  </si>
-  <si>
-    <t>EXCH&gt;Executive Chef</t>
-  </si>
-  <si>
-    <t>Executive Chef</t>
-  </si>
-  <si>
-    <t>EXPC&gt;Executive Pastry Chef</t>
-  </si>
-  <si>
-    <t>Executive Pastry Chef</t>
-  </si>
-  <si>
-    <t>EXSC&gt;Executive Sous Chef</t>
-  </si>
-  <si>
-    <t>Executive Sous Chef</t>
-  </si>
-  <si>
-    <t>FOM&gt;FO Manager</t>
-  </si>
-  <si>
-    <t>FO Manager</t>
-  </si>
-  <si>
-    <t>HDBAR&gt;Head Bartender</t>
-  </si>
-  <si>
-    <t>Head Bartender</t>
-  </si>
-  <si>
-    <t>HDSOM&gt;Head Sommelier</t>
-  </si>
-  <si>
-    <t>Head Sommelier</t>
-  </si>
-  <si>
-    <t>HMGR&gt;Hygiene Manager</t>
-  </si>
-  <si>
-    <t>Hygiene Manager</t>
-  </si>
-  <si>
-    <t>HOS&gt;Hostess</t>
-  </si>
-  <si>
-    <t>Hostess</t>
-  </si>
-  <si>
-    <t>PLOU</t>
-  </si>
-  <si>
-    <t>LOBAM&gt;Lobby Ambassador</t>
-  </si>
-  <si>
-    <t>Lobby Ambassador</t>
-  </si>
-  <si>
-    <t>MGR&gt;Manager</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>SALMARK</t>
-  </si>
-  <si>
-    <t>STW</t>
-  </si>
-  <si>
-    <t>MKTCR&gt;Marketing Coordinator</t>
-  </si>
-  <si>
-    <t>Marketing Coordinator</t>
-  </si>
-  <si>
-    <t>MNTA&gt;Maintenance</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>MTNSPV&gt;Maintenance Supervisor</t>
-  </si>
-  <si>
-    <t>Maintenance Supervisor</t>
-  </si>
-  <si>
-    <t>PAATNT&gt;Pool Attendant</t>
-  </si>
-  <si>
-    <t>Pool Attendant</t>
-  </si>
-  <si>
-    <t>PMSTR&gt;Pay Master</t>
-  </si>
-  <si>
-    <t>Pay Master</t>
-  </si>
-  <si>
-    <t>PURMGR&gt;Purchasing Manager</t>
-  </si>
-  <si>
-    <t>Purchasing Manager</t>
-  </si>
-  <si>
-    <t>RC&gt;Receptionist</t>
-  </si>
-  <si>
-    <t>Receptionist</t>
-  </si>
-  <si>
-    <t>RECCLE&gt;Receiving Clerk</t>
-  </si>
-  <si>
-    <t>Receiving Clerk</t>
-  </si>
-  <si>
-    <t>RMATTN&gt;Room Attendant</t>
-  </si>
-  <si>
-    <t>Room Attendant</t>
-  </si>
-  <si>
-    <t>RNTMGR&gt;Restaurant Manager</t>
-  </si>
-  <si>
-    <t>Restaurant Manager</t>
-  </si>
-  <si>
-    <t>RSVAG&gt;Reservation Agent</t>
-  </si>
-  <si>
-    <t>Reservation Agent</t>
-  </si>
-  <si>
-    <t>SC&gt;Sous Chef</t>
-  </si>
-  <si>
-    <t>Sous Chef</t>
-  </si>
-  <si>
-    <t>SCDP&gt;Senior Chef De Partie</t>
-  </si>
-  <si>
-    <t>Senior Chef De Partie</t>
-  </si>
-  <si>
-    <t>SECSPV&gt;Security Supervisor</t>
-  </si>
-  <si>
-    <t>Security Supervisor</t>
-  </si>
-  <si>
-    <t>SER&gt;Server</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>DUCH</t>
-  </si>
-  <si>
-    <t>SMLIER&gt;Sommelier</t>
-  </si>
-  <si>
-    <t>Sommelier</t>
-  </si>
-  <si>
-    <t>SOOFF&gt;Security Officer</t>
-  </si>
-  <si>
-    <t>Security Officer</t>
-  </si>
-  <si>
-    <t>SPCHEF&gt;Chef De Cuisine</t>
-  </si>
-  <si>
-    <t>Chef De Cuisine</t>
-  </si>
-  <si>
-    <t>SPVR&gt;Supervisor</t>
-  </si>
-  <si>
-    <t>Supervisor</t>
-  </si>
-  <si>
-    <t>SWD&gt;Steward</t>
-  </si>
-  <si>
-    <t>Steward</t>
-  </si>
-  <si>
-    <t>TECH&gt;Technician</t>
-  </si>
-  <si>
-    <t>Technician</t>
-  </si>
-  <si>
-    <t>TER&gt;Therapist</t>
-  </si>
-  <si>
-    <t>Therapist</t>
-  </si>
-  <si>
-    <t>WTR&gt;Waiter</t>
-  </si>
-  <si>
-    <t>Waiter</t>
-  </si>
-  <si>
-    <t>WTRSS&gt;Waitress</t>
-  </si>
-  <si>
-    <t>Waitress</t>
-  </si>
-  <si>
-    <t>ADD&gt;All Day Dining</t>
-  </si>
-  <si>
-    <t>All Day Dining</t>
-  </si>
-  <si>
-    <t>CHGR&gt;Chicago Rare</t>
-  </si>
-  <si>
-    <t>Chicago Rare</t>
-  </si>
-  <si>
-    <t>DL-RBCHN&gt;Le Deli Robuchon</t>
-  </si>
-  <si>
-    <t>Le Deli Robuchon</t>
-  </si>
-  <si>
-    <t>DOORSV&gt;Door Service</t>
-  </si>
-  <si>
-    <t>Door Service</t>
-  </si>
-  <si>
-    <t>DUCH&gt;Duches</t>
-  </si>
-  <si>
-    <t>Duches</t>
-  </si>
-  <si>
-    <t>ENG&gt;Engineering</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>F&amp;B&gt;F&amp;B</t>
-  </si>
-  <si>
-    <t>FIN&gt;Finance</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>FO&gt;Front Office</t>
-  </si>
-  <si>
-    <t>Front Office</t>
-  </si>
-  <si>
-    <t>HK&gt;Housekeeping</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
-    <t>IRD&gt;In Room Dining</t>
-  </si>
-  <si>
-    <t>In Room Dining</t>
-  </si>
-  <si>
-    <t>KIDSCLB&gt;Kids Club</t>
-  </si>
-  <si>
-    <t>Kids Club</t>
-  </si>
-  <si>
-    <t>KTN&gt;Kitchen</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>LBYLNG&gt;Lobby Lounge</t>
-  </si>
-  <si>
-    <t>Lobby Lounge</t>
-  </si>
-  <si>
-    <t>LDRY&gt;Laundry</t>
-  </si>
-  <si>
-    <t>Laundry</t>
-  </si>
-  <si>
-    <t>N.ROUZAUD&gt;Nicolas Rouzaud</t>
-  </si>
-  <si>
-    <t>Nicolas Rouzaud</t>
-  </si>
-  <si>
-    <t>P&amp;B&gt;Pool &amp; Beach</t>
-  </si>
-  <si>
-    <t>Pool &amp; Beach</t>
-  </si>
-  <si>
-    <t>PASKTN&gt;Pastry Kitchen</t>
-  </si>
-  <si>
-    <t>Pastry Kitchen</t>
-  </si>
-  <si>
-    <t>PEOPLE &amp; CULTURE&gt;P&amp;C</t>
-  </si>
-  <si>
-    <t>P&amp;C</t>
-  </si>
-  <si>
-    <t>RBCHN&gt;Robuchon</t>
-  </si>
-  <si>
-    <t>Robuchon</t>
-  </si>
-  <si>
-    <t>RMSRVC&gt;Room Service</t>
-  </si>
-  <si>
-    <t>Room Service</t>
-  </si>
-  <si>
-    <t>RSDC&gt;Residence</t>
-  </si>
-  <si>
-    <t>Residence</t>
-  </si>
-  <si>
-    <t>RSRVT&gt;Reservation</t>
-  </si>
-  <si>
-    <t>Reservation</t>
-  </si>
-  <si>
-    <t>SEC&gt;Security</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>SPA&gt;SPA</t>
-  </si>
-  <si>
-    <t>TL&gt;Tea lounge</t>
-  </si>
-  <si>
-    <t>Tea lounge</t>
   </si>
   <si>
     <t>Male</t>
@@ -4099,7 +3451,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4114,1864 +3466,502 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>117</v>
-      </c>
-      <c r="B101" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>117</v>
-      </c>
-      <c r="B102" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>117</v>
-      </c>
-      <c r="B103" t="s">
-        <v>118</v>
-      </c>
-      <c r="C103" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>117</v>
-      </c>
-      <c r="B104" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>117</v>
-      </c>
-      <c r="B105" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106" t="s">
-        <v>118</v>
-      </c>
-      <c r="C106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>121</v>
-      </c>
-      <c r="B107" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>123</v>
-      </c>
-      <c r="B108" t="s">
-        <v>124</v>
-      </c>
-      <c r="C108" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>125</v>
-      </c>
-      <c r="B109" t="s">
-        <v>126</v>
-      </c>
-      <c r="C109" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>127</v>
-      </c>
-      <c r="B110" t="s">
-        <v>128</v>
-      </c>
-      <c r="C110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>127</v>
-      </c>
-      <c r="B111" t="s">
-        <v>128</v>
-      </c>
-      <c r="C111" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>129</v>
-      </c>
-      <c r="B112" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>131</v>
-      </c>
-      <c r="B113" t="s">
-        <v>132</v>
-      </c>
-      <c r="C113" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>133</v>
-      </c>
-      <c r="B114" t="s">
-        <v>134</v>
-      </c>
-      <c r="C114" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>133</v>
-      </c>
-      <c r="B115" t="s">
-        <v>134</v>
-      </c>
-      <c r="C115" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>135</v>
-      </c>
-      <c r="B116" t="s">
-        <v>136</v>
-      </c>
-      <c r="C116" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>137</v>
-      </c>
-      <c r="B117" t="s">
-        <v>138</v>
-      </c>
-      <c r="C117" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>137</v>
-      </c>
-      <c r="B118" t="s">
-        <v>138</v>
-      </c>
-      <c r="C118" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>139</v>
-      </c>
-      <c r="B119" t="s">
-        <v>140</v>
-      </c>
-      <c r="C119" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>141</v>
-      </c>
-      <c r="B120" t="s">
-        <v>142</v>
-      </c>
-      <c r="C120" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>143</v>
-      </c>
-      <c r="B121" t="s">
-        <v>144</v>
-      </c>
-      <c r="C121" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>143</v>
-      </c>
-      <c r="B122" t="s">
-        <v>144</v>
-      </c>
-      <c r="C122" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>143</v>
-      </c>
-      <c r="B123" t="s">
-        <v>144</v>
-      </c>
-      <c r="C123" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>143</v>
-      </c>
-      <c r="B124" t="s">
-        <v>144</v>
-      </c>
-      <c r="C124" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>145</v>
-      </c>
-      <c r="B125" t="s">
-        <v>146</v>
-      </c>
-      <c r="C125" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>147</v>
-      </c>
-      <c r="B126" t="s">
-        <v>148</v>
-      </c>
-      <c r="C126" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>149</v>
-      </c>
-      <c r="B127" t="s">
-        <v>150</v>
-      </c>
-      <c r="C127" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>149</v>
-      </c>
-      <c r="B128" t="s">
-        <v>150</v>
-      </c>
-      <c r="C128" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>149</v>
-      </c>
-      <c r="B129" t="s">
-        <v>150</v>
-      </c>
-      <c r="C129" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>149</v>
-      </c>
-      <c r="B130" t="s">
-        <v>150</v>
-      </c>
-      <c r="C130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>149</v>
-      </c>
-      <c r="B131" t="s">
-        <v>150</v>
-      </c>
-      <c r="C131" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>149</v>
-      </c>
-      <c r="B132" t="s">
-        <v>150</v>
-      </c>
-      <c r="C132" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>149</v>
-      </c>
-      <c r="B133" t="s">
-        <v>150</v>
-      </c>
-      <c r="C133" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>149</v>
-      </c>
-      <c r="B134" t="s">
-        <v>150</v>
-      </c>
-      <c r="C134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>152</v>
-      </c>
-      <c r="B135" t="s">
-        <v>153</v>
-      </c>
-      <c r="C135" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>152</v>
-      </c>
-      <c r="B136" t="s">
-        <v>153</v>
-      </c>
-      <c r="C136" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>154</v>
-      </c>
-      <c r="B137" t="s">
-        <v>155</v>
-      </c>
-      <c r="C137" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>156</v>
-      </c>
-      <c r="B138" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>158</v>
-      </c>
-      <c r="B139" t="s">
-        <v>159</v>
-      </c>
-      <c r="C139" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>158</v>
-      </c>
-      <c r="B140" t="s">
-        <v>159</v>
-      </c>
-      <c r="C140" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>158</v>
-      </c>
-      <c r="B141" t="s">
-        <v>159</v>
-      </c>
-      <c r="C141" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>158</v>
-      </c>
-      <c r="B142" t="s">
-        <v>159</v>
-      </c>
-      <c r="C142" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>158</v>
-      </c>
-      <c r="B143" t="s">
-        <v>159</v>
-      </c>
-      <c r="C143" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>158</v>
-      </c>
-      <c r="B144" t="s">
-        <v>159</v>
-      </c>
-      <c r="C144" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>158</v>
-      </c>
-      <c r="B145" t="s">
-        <v>159</v>
-      </c>
-      <c r="C145" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>158</v>
-      </c>
-      <c r="B146" t="s">
-        <v>159</v>
-      </c>
-      <c r="C146" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>158</v>
-      </c>
-      <c r="B147" t="s">
-        <v>159</v>
-      </c>
-      <c r="C147" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>158</v>
-      </c>
-      <c r="B148" t="s">
-        <v>159</v>
-      </c>
-      <c r="C148" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>158</v>
-      </c>
-      <c r="B149" t="s">
-        <v>159</v>
-      </c>
-      <c r="C149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>158</v>
-      </c>
-      <c r="B150" t="s">
-        <v>159</v>
-      </c>
-      <c r="C150" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>158</v>
-      </c>
-      <c r="B151" t="s">
-        <v>159</v>
-      </c>
-      <c r="C151" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>158</v>
-      </c>
-      <c r="B152" t="s">
-        <v>159</v>
-      </c>
-      <c r="C152" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>158</v>
-      </c>
-      <c r="B153" t="s">
-        <v>159</v>
-      </c>
-      <c r="C153" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>158</v>
-      </c>
-      <c r="B154" t="s">
-        <v>159</v>
-      </c>
-      <c r="C154" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>158</v>
-      </c>
-      <c r="B155" t="s">
-        <v>159</v>
-      </c>
-      <c r="C155" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>158</v>
-      </c>
-      <c r="B156" t="s">
-        <v>159</v>
-      </c>
-      <c r="C156" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>158</v>
-      </c>
-      <c r="B157" t="s">
-        <v>159</v>
-      </c>
-      <c r="C157" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>160</v>
-      </c>
-      <c r="B158" t="s">
-        <v>161</v>
-      </c>
-      <c r="C158" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>162</v>
-      </c>
-      <c r="B159" t="s">
-        <v>163</v>
-      </c>
-      <c r="C159" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>164</v>
-      </c>
-      <c r="B160" t="s">
-        <v>165</v>
-      </c>
-      <c r="C160" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B161" t="s">
-        <v>167</v>
-      </c>
-      <c r="C161" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>166</v>
-      </c>
-      <c r="B162" t="s">
-        <v>167</v>
-      </c>
-      <c r="C162" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>166</v>
-      </c>
-      <c r="B163" t="s">
-        <v>167</v>
-      </c>
-      <c r="C163" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>166</v>
-      </c>
-      <c r="B164" t="s">
-        <v>167</v>
-      </c>
-      <c r="C164" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>166</v>
-      </c>
-      <c r="B165" t="s">
-        <v>167</v>
-      </c>
-      <c r="C165" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>166</v>
-      </c>
-      <c r="B166" t="s">
-        <v>167</v>
-      </c>
-      <c r="C166" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167" t="s">
-        <v>169</v>
-      </c>
-      <c r="C167" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168" t="s">
-        <v>169</v>
-      </c>
-      <c r="C168" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>169</v>
-      </c>
-      <c r="C169" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>169</v>
-      </c>
-      <c r="C170" t="s">
-        <v>21</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FleVPwkDUDbAKYG/wavuuU2xRAJKMLNyB/pVaGsCgLzmFgQ8W/eTrGy2QLzki1CZLbHOfZhDltU8iENHv0Fn4g==" saltValue="fYm0+N6B7GFlPCcLPEdaWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6ktOx0jW1H5KHhhyKiFUyoll4mQssXwuabfUl3hV3S4Pa38G8QEDJ2kwxI77k93R4FvJ6t8yodW76TPGyzVhYg==" saltValue="p4e99JgdRX/XgnCCZWxj3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5990,212 +3980,108 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -6490,7 +4376,7 @@
       <c r="B100" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qVwXkaJCcMV7RVATOj6KPuN+61hctuS9kiTGXCYNzptrZxTBiXI4gPTfzyO7g5w1gKsoEWUHR0rmZo0cJCXh5w==" saltValue="ErOyFYkYeCe0R2IylEtJEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Hoi29DmK6UCpMhWOpCroWDIJ/nS9HVli+9MRb0cwToetPCBk08Fx66DR06VRE6V7lXEU2916ZADae64AGmJGTw==" saltValue="mZR4fRasLrWryOqB9Actzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6505,12 +4391,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
